--- a/experimental_data/GEC/Dufour1992.xlsx
+++ b/experimental_data/GEC/Dufour1992.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="193" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="193" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t>state</t>
+    <t>status</t>
   </si>
   <si>
     <t>age [years]</t>
@@ -68,7 +68,7 @@
     <t>duf1992</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>M</t>
@@ -106,8 +106,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -190,7 +190,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -199,95 +199,95 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -353,23 +353,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:colOff>396720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -380,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="369720" y="3823560"/>
-          <a:ext cx="5763960" cy="2558160"/>
+          <a:off x="396720" y="3814560"/>
+          <a:ext cx="5763600" cy="2557800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,8 +403,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6:A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -413,11 +413,11 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5867346938776"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6530612244898"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,12 +427,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="3" s="5">
+    <row r="3" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -461,7 +461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -519,7 +519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -579,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -639,7 +639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -669,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -729,7 +729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -759,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -789,7 +789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -819,7 +819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -849,7 +849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -909,7 +909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -939,11 +939,11 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
+    <row r="33" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
